--- a/data_selection/result/地区生产总值-江门-先行指标-V3.xlsx
+++ b/data_selection/result/地区生产总值-江门-先行指标-V3.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>特征数据滞后期数</t>
+          <t>特征滞后期数</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -461,47 +461,47 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2016年06月</t>
+          <t>2016年03月</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2016年09月</t>
+          <t>2016年06月</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016年09月</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2017年03月</t>
+          <t>2016年12月</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2017年06月</t>
+          <t>2017年03月</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -511,17 +511,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2017年09月</t>
+          <t>2017年06月</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017年09月</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -531,130 +531,140 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2018年03月</t>
+          <t>2017年12月</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2018年06月</t>
+          <t>2018年03月</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2018年09月</t>
+          <t>2018年06月</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018年09月</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019年03月</t>
+          <t>2018年12月</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2019年06月</t>
+          <t>2019年03月</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2019年09月</t>
+          <t>2019年06月</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019年09月</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020年03月</t>
+          <t>2019年12月</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-11.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020年06月</t>
+          <t>2020年03月</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3.8</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020年09月</t>
+          <t>2020年06月</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020年09月</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>2020年12月</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>2021年03月</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>21.4</v>
       </c>
     </row>
@@ -687,14 +697,247 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>地区生产总值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>特征滞后期数</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2016年03月</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2016年06月</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2016年09月</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2016年12月</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2017年03月</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2017年06月</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2017年09月</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2017年12月</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2018年03月</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2018年06月</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2018年09月</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2018年12月</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2019年03月</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2019年06月</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2019年09月</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2019年12月</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020年03月</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020年06月</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020年09月</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020年12月</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2021年03月</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -705,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,11 +996,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>特征数据滞后期数</t>
+          <t>特征滞后期数</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -766,10 +1009,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -778,12 +1021,10 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2016年04月</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5.8</v>
-      </c>
+          <t>2016年03月</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -793,1368 +1034,1391 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2016年05月</t>
+          <t>2016年04月</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>37.4</v>
+        <v>52.7</v>
       </c>
       <c r="D4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11.6455696202532</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2016年06月</t>
+          <t>2016年05月</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.2</v>
+        <v>5.8</v>
       </c>
       <c r="C5" t="n">
-        <v>25.03</v>
+        <v>37.4</v>
       </c>
       <c r="D5" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11.3636363636364</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>7.1</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>108.6</v>
+      </c>
       <c r="G5" t="n">
-        <v>31.1</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2016年07月</t>
+          <t>2016年06月</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.8</v>
+        <v>17.1</v>
       </c>
       <c r="C6" t="n">
-        <v>25.4</v>
+        <v>25.03</v>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13.3165829145729</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>6.1</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>40.5</v>
+      </c>
       <c r="G6" t="n">
-        <v>32</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2016年08月</t>
+          <t>2016年07月</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.2</v>
+        <v>14.2</v>
       </c>
       <c r="C7" t="n">
-        <v>-22.2</v>
+        <v>25.4</v>
       </c>
       <c r="D7" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>12.7764127764128</v>
+        <v>11.6455696202532</v>
       </c>
       <c r="F7" t="n">
-        <v>40.5</v>
+        <v>38.1</v>
       </c>
       <c r="G7" t="n">
-        <v>28.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2016年09月</t>
+          <t>2016年08月</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.7</v>
+        <v>12.8</v>
       </c>
       <c r="C8" t="n">
-        <v>-9.9</v>
+        <v>-22.2</v>
       </c>
       <c r="D8" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="E8" t="n">
-        <v>13.7592137592138</v>
+        <v>11.6455696202532</v>
       </c>
       <c r="F8" t="n">
-        <v>38.1</v>
+        <v>48.9</v>
       </c>
       <c r="G8" t="n">
-        <v>23.8</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016年09月</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="C9" t="n">
-        <v>-13</v>
+        <v>-9.9</v>
       </c>
       <c r="D9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.0481927710843</v>
+        <v>11.3636363636364</v>
       </c>
       <c r="F9" t="n">
-        <v>48.9</v>
+        <v>52</v>
       </c>
       <c r="G9" t="n">
-        <v>22.5</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016年10月</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.6</v>
+        <v>7.7</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.1</v>
+        <v>-13</v>
       </c>
       <c r="D10" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="E10" t="n">
-        <v>13.3333333333333</v>
+        <v>13.3165829145729</v>
       </c>
       <c r="F10" t="n">
-        <v>52</v>
+        <v>45.1</v>
       </c>
       <c r="G10" t="n">
-        <v>19.4</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016年11月</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.9</v>
+        <v>7.7</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>-4.1</v>
       </c>
       <c r="D11" t="n">
-        <v>8.6</v>
+        <v>4.9</v>
       </c>
       <c r="E11" t="n">
-        <v>12.9716981132075</v>
+        <v>12.7764127764128</v>
       </c>
       <c r="F11" t="n">
-        <v>45.1</v>
+        <v>32.3</v>
       </c>
       <c r="G11" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2017年02月</t>
+          <t>2016年12月</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="C12" t="n">
-        <v>11.8</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="E12" t="n">
-        <v>11.368909512761</v>
+        <v>13.7592137592138</v>
       </c>
       <c r="F12" t="n">
-        <v>32.3</v>
+        <v>39.7</v>
       </c>
       <c r="G12" t="n">
-        <v>17.3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2017年03月</t>
+          <t>2017年02月</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.5</v>
+        <v>13.9</v>
       </c>
       <c r="C13" t="n">
-        <v>-35.31</v>
+        <v>11.8</v>
       </c>
       <c r="D13" t="n">
-        <v>15.9</v>
+        <v>8.4</v>
       </c>
       <c r="E13" t="n">
-        <v>12.1004566210046</v>
+        <v>12.0481927710843</v>
       </c>
       <c r="F13" t="n">
-        <v>39.7</v>
+        <v>42.8</v>
       </c>
       <c r="G13" t="n">
-        <v>18.1</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2017年04月</t>
+          <t>2017年03月</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1</v>
+        <v>13.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-55.8</v>
+        <v>-35.31</v>
       </c>
       <c r="D14" t="n">
-        <v>14.7</v>
+        <v>15.9</v>
       </c>
       <c r="E14" t="n">
-        <v>11.5646258503401</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>42.8</v>
+        <v>29</v>
       </c>
       <c r="G14" t="n">
-        <v>15.1</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2017年05月</t>
+          <t>2017年04月</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.7</v>
+        <v>8.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-56.7</v>
+        <v>-55.8</v>
       </c>
       <c r="D15" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="E15" t="n">
-        <v>12.2448979591837</v>
+        <v>12.9716981132075</v>
       </c>
       <c r="F15" t="n">
-        <v>29</v>
+        <v>508.4</v>
       </c>
       <c r="G15" t="n">
-        <v>21.7</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2017年06月</t>
+          <t>2017年05月</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="C16" t="n">
-        <v>-54.37</v>
+        <v>-56.7</v>
       </c>
       <c r="D16" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="E16" t="n">
-        <v>13.3786848072562</v>
+        <v>11.368909512761</v>
       </c>
       <c r="F16" t="n">
-        <v>508.4</v>
+        <v>45.4</v>
       </c>
       <c r="G16" t="n">
-        <v>22.3</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2017年07月</t>
+          <t>2017年06月</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.1</v>
+        <v>-2.7</v>
       </c>
       <c r="C17" t="n">
-        <v>-54.68</v>
+        <v>-54.37</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>15.8</v>
       </c>
       <c r="E17" t="n">
-        <v>10.8647450110865</v>
+        <v>12.1004566210046</v>
       </c>
       <c r="F17" t="n">
-        <v>45.4</v>
+        <v>87.2</v>
       </c>
       <c r="G17" t="n">
-        <v>14.1</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2017年08月</t>
+          <t>2017年07月</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="C18" t="n">
-        <v>1.52</v>
+        <v>-54.68</v>
       </c>
       <c r="D18" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>10.4575163398693</v>
+        <v>11.5646258503401</v>
       </c>
       <c r="F18" t="n">
-        <v>87.2</v>
+        <v>93.2</v>
       </c>
       <c r="G18" t="n">
-        <v>15.1</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2017年09月</t>
+          <t>2017年08月</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="C19" t="n">
-        <v>6.34</v>
+        <v>1.52</v>
       </c>
       <c r="D19" t="n">
-        <v>17.9</v>
+        <v>17.2</v>
       </c>
       <c r="E19" t="n">
-        <v>10.1511879049676</v>
+        <v>12.2448979591837</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>20.4</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017年09月</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="n">
-        <v>28.07</v>
+        <v>6.34</v>
       </c>
       <c r="D20" t="n">
-        <v>19.3</v>
+        <v>17.9</v>
       </c>
       <c r="E20" t="n">
-        <v>11.8279569892473</v>
+        <v>13.3786848072562</v>
       </c>
       <c r="F20" t="n">
-        <v>79.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="G20" t="n">
-        <v>17.7</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017年10月</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>19.701247</v>
+        <v>28.07</v>
       </c>
       <c r="D21" t="n">
-        <v>19.7</v>
+        <v>19.3</v>
       </c>
       <c r="E21" t="n">
-        <v>15.7563025210084</v>
+        <v>10.8647450110865</v>
       </c>
       <c r="F21" t="n">
-        <v>95.3</v>
+        <v>83</v>
       </c>
       <c r="G21" t="n">
-        <v>12.5</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2017年12月</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+          <t>2017年11月</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>19.701247</v>
+      </c>
+      <c r="D22" t="n">
+        <v>19.7</v>
+      </c>
       <c r="E22" t="n">
-        <v>15.2400835073069</v>
+        <v>10.4575163398693</v>
       </c>
       <c r="F22" t="n">
-        <v>83</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>11.6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2018年02月</t>
+          <t>2017年12月</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-12.67</v>
-      </c>
+        <v>7.1</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>16.6666666666667</v>
+        <v>10.1511879049676</v>
       </c>
       <c r="F23" t="n">
-        <v>81.09999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="G23" t="n">
-        <v>13.2</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2018年03月</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>9.5</v>
-      </c>
+          <t>2018年02月</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>837.12</v>
-      </c>
-      <c r="D24" t="n">
-        <v>13.4</v>
-      </c>
+        <v>-12.67</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>14.6639511201629</v>
+        <v>11.8279569892473</v>
       </c>
       <c r="F24" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+        <v>56.9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2018年04月</t>
+          <t>2018年03月</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.1</v>
+        <v>15.7</v>
       </c>
       <c r="C25" t="n">
-        <v>620.74</v>
+        <v>837.12</v>
       </c>
       <c r="D25" t="n">
-        <v>10.9</v>
+        <v>13.4</v>
       </c>
       <c r="E25" t="n">
-        <v>14.4308943089431</v>
-      </c>
-      <c r="F25" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.2</v>
-      </c>
+        <v>15.7563025210084</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2018年05月</t>
+          <t>2018年04月</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C26" t="n">
-        <v>602.97</v>
+        <v>620.74</v>
       </c>
       <c r="D26" t="n">
-        <v>11.6</v>
+        <v>10.9</v>
       </c>
       <c r="E26" t="n">
-        <v>14.7474747474747</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
+        <v>15.2400835073069</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.7</v>
+      </c>
       <c r="G26" t="n">
-        <v>-14.2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2018年06月</t>
+          <t>2018年05月</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.5</v>
+        <v>12.1</v>
       </c>
       <c r="C27" t="n">
-        <v>556.77</v>
+        <v>602.97</v>
       </c>
       <c r="D27" t="n">
-        <v>10.3</v>
+        <v>11.6</v>
       </c>
       <c r="E27" t="n">
-        <v>14.6</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="F27" t="n">
-        <v>3.7</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.9</v>
+        <v>-14.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2018年07月</t>
+          <t>2018年06月</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>496.09</v>
+        <v>556.77</v>
       </c>
       <c r="D28" t="n">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="E28" t="n">
-        <v>15.2</v>
+        <v>14.6639511201629</v>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
+        <v>21.1</v>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2018年08月</t>
+          <t>2018年07月</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="C29" t="n">
-        <v>192.24</v>
+        <v>496.09</v>
       </c>
       <c r="D29" t="n">
-        <v>8.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="E29" t="n">
-        <v>14.9901380670611</v>
+        <v>14.4308943089431</v>
       </c>
       <c r="F29" t="n">
-        <v>21.1</v>
+        <v>-1.5</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2018年09月</t>
+          <t>2018年08月</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
+        <v>1.2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>192.24</v>
+      </c>
       <c r="D30" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>15.0980392156863</v>
+        <v>14.7474747474747</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.5</v>
+        <v>-13</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.7</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018年09月</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C31" t="n">
-        <v>125.73</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="E31" t="n">
-        <v>15.1923076923077</v>
+        <v>14.6</v>
       </c>
       <c r="F31" t="n">
-        <v>-13</v>
+        <v>-11.5</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.9</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018年10月</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.3</v>
+        <v>-0.5</v>
       </c>
       <c r="C32" t="n">
-        <v>117.298378</v>
+        <v>125.73</v>
       </c>
       <c r="D32" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>8.71143375680581</v>
+        <v>15.2</v>
       </c>
       <c r="F32" t="n">
-        <v>-11.5</v>
+        <v>-10.4</v>
       </c>
       <c r="G32" t="n">
-        <v>6.9</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018年11月</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="C33" t="n">
-        <v>106.13</v>
+        <v>117.298378</v>
       </c>
       <c r="D33" t="n">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>11.5942028985507</v>
+        <v>14.9901380670611</v>
       </c>
       <c r="F33" t="n">
-        <v>-10.4</v>
+        <v>-8.9</v>
       </c>
       <c r="G33" t="n">
-        <v>10.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2019年02月</t>
+          <t>2018年12月</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="C34" t="n">
-        <v>124.5</v>
+        <v>106.13</v>
       </c>
       <c r="D34" t="n">
-        <v>9.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>11.6071428571429</v>
+        <v>15.0980392156863</v>
       </c>
       <c r="F34" t="n">
-        <v>-8.9</v>
+        <v>-7.5</v>
       </c>
       <c r="G34" t="n">
-        <v>12.7</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2019年03月</t>
+          <t>2019年02月</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.5</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>-99.42</v>
+        <v>124.5</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.9</v>
+        <v>9.4</v>
       </c>
       <c r="E35" t="n">
-        <v>11.9005328596803</v>
+        <v>15.1923076923077</v>
       </c>
       <c r="F35" t="n">
-        <v>-7.5</v>
+        <v>-10.6</v>
       </c>
       <c r="G35" t="n">
-        <v>8.199999999999999</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2019年04月</t>
+          <t>2019年03月</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.5</v>
+        <v>1.8</v>
       </c>
       <c r="C36" t="n">
-        <v>-95.27</v>
+        <v>-99.42</v>
       </c>
       <c r="D36" t="n">
-        <v>2.8</v>
+        <v>-1.9</v>
       </c>
       <c r="E36" t="n">
-        <v>13.6767317939609</v>
+        <v>8.71143375680581</v>
       </c>
       <c r="F36" t="n">
-        <v>-10.6</v>
+        <v>-49.3</v>
       </c>
       <c r="G36" t="n">
-        <v>22.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2019年05月</t>
+          <t>2019年04月</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="C37" t="n">
-        <v>-93.724118</v>
+        <v>-95.27</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.8</v>
+        <v>2.8</v>
       </c>
       <c r="E37" t="n">
-        <v>13.2042253521127</v>
+        <v>11.5942028985507</v>
       </c>
       <c r="F37" t="n">
-        <v>-49.3</v>
+        <v>-72.3</v>
       </c>
       <c r="G37" t="n">
-        <v>20.3</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2019年06月</t>
+          <t>2019年05月</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.4</v>
+        <v>-0.5</v>
       </c>
       <c r="C38" t="n">
-        <v>-91.52</v>
+        <v>-93.724118</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.4</v>
+        <v>-2.8</v>
       </c>
       <c r="E38" t="n">
-        <v>13.2635253054101</v>
+        <v>11.6071428571429</v>
       </c>
       <c r="F38" t="n">
-        <v>-72.3</v>
+        <v>-75.40000000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>9.699999999999999</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2019年07月</t>
+          <t>2019年06月</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.8</v>
+        <v>1.4</v>
       </c>
       <c r="C39" t="n">
-        <v>-85.48999999999999</v>
+        <v>-91.52</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.1</v>
+        <v>-3.4</v>
       </c>
       <c r="E39" t="n">
-        <v>14.0625</v>
+        <v>11.9005328596803</v>
       </c>
       <c r="F39" t="n">
-        <v>-75.40000000000001</v>
+        <v>-71.3</v>
       </c>
       <c r="G39" t="n">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2019年08月</t>
+          <t>2019年07月</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.6</v>
+        <v>5.4</v>
       </c>
       <c r="C40" t="n">
-        <v>-62.33</v>
+        <v>-85.48999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>-4.8</v>
+        <v>-4.1</v>
       </c>
       <c r="E40" t="n">
-        <v>13.5506003430532</v>
+        <v>13.6767317939609</v>
       </c>
       <c r="F40" t="n">
-        <v>-71.3</v>
+        <v>-65.59999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>5.8</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2019年09月</t>
+          <t>2019年08月</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="C41" t="n">
-        <v>-64.86</v>
+        <v>-62.33</v>
       </c>
       <c r="D41" t="n">
-        <v>-6.3</v>
+        <v>-4.8</v>
       </c>
       <c r="E41" t="n">
-        <v>13.7989778534923</v>
+        <v>13.2042253521127</v>
       </c>
       <c r="F41" t="n">
-        <v>-65.59999999999999</v>
+        <v>-59.2</v>
       </c>
       <c r="G41" t="n">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019年09月</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-2.5</v>
+        <v>-0.6</v>
       </c>
       <c r="C42" t="n">
-        <v>-42.81</v>
+        <v>-64.86</v>
       </c>
       <c r="D42" t="n">
-        <v>-5.4</v>
+        <v>-6.3</v>
       </c>
       <c r="E42" t="n">
-        <v>12.0200333889816</v>
+        <v>13.2635253054101</v>
       </c>
       <c r="F42" t="n">
-        <v>-59.2</v>
+        <v>-55.1</v>
       </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019年10月</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-4.1</v>
+        <v>-0.2</v>
       </c>
       <c r="C43" t="n">
-        <v>-43.39</v>
+        <v>-42.81</v>
       </c>
       <c r="D43" t="n">
         <v>-5.4</v>
       </c>
       <c r="E43" t="n">
-        <v>12.5208681135225</v>
+        <v>14.0625</v>
       </c>
       <c r="F43" t="n">
-        <v>-55.1</v>
+        <v>-51.4</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019年11月</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-3.8</v>
+        <v>-2.5</v>
       </c>
       <c r="C44" t="n">
-        <v>-37.95</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>-43.39</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-5.4</v>
+      </c>
       <c r="E44" t="n">
-        <v>10.0649350649351</v>
+        <v>13.5506003430532</v>
       </c>
       <c r="F44" t="n">
-        <v>-51.4</v>
+        <v>-48.8</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.7</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020年02月</t>
+          <t>2019年12月</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-38.4</v>
+        <v>-4.1</v>
       </c>
       <c r="C45" t="n">
-        <v>-34.07</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-4.3</v>
-      </c>
+        <v>-37.95</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>10.24</v>
+        <v>13.7989778534923</v>
       </c>
       <c r="F45" t="n">
-        <v>-48.8</v>
+        <v>-46.2</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.8</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020年03月</t>
+          <t>2020年02月</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-25.1</v>
+        <v>-3.8</v>
       </c>
       <c r="C46" t="n">
-        <v>-1306.42</v>
+        <v>-34.07</v>
       </c>
       <c r="D46" t="n">
-        <v>-20.6</v>
+        <v>-4.3</v>
       </c>
       <c r="E46" t="n">
-        <v>10.1587301587302</v>
+        <v>12.0200333889816</v>
       </c>
       <c r="F46" t="n">
-        <v>-46.2</v>
+        <v>-43.2</v>
       </c>
       <c r="G46" t="n">
-        <v>-5</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020年04月</t>
+          <t>2020年03月</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-27.7</v>
+        <v>-38.4</v>
       </c>
       <c r="C47" t="n">
-        <v>323.15</v>
+        <v>-1306.42</v>
       </c>
       <c r="D47" t="n">
-        <v>-20</v>
+        <v>-20.6</v>
       </c>
       <c r="E47" t="n">
-        <v>8.90625</v>
+        <v>12.5208681135225</v>
       </c>
       <c r="F47" t="n">
-        <v>-43.2</v>
+        <v>5.1</v>
       </c>
       <c r="G47" t="n">
-        <v>-53.1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020年05月</t>
+          <t>2020年04月</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-30.7</v>
+        <v>-25.1</v>
       </c>
       <c r="C48" t="n">
-        <v>307.19</v>
+        <v>323.15</v>
       </c>
       <c r="D48" t="n">
-        <v>-14.6</v>
+        <v>-20</v>
       </c>
       <c r="E48" t="n">
-        <v>8.8646967340591</v>
+        <v>10.0649350649351</v>
       </c>
       <c r="F48" t="n">
-        <v>5.1</v>
+        <v>-31.8</v>
       </c>
       <c r="G48" t="n">
-        <v>-46.4</v>
+        <v>-53.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020年06月</t>
+          <t>2020年05月</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-30.8</v>
+        <v>-27.7</v>
       </c>
       <c r="C49" t="n">
-        <v>243.97</v>
+        <v>307.19</v>
       </c>
       <c r="D49" t="n">
-        <v>-11.8</v>
+        <v>-14.6</v>
       </c>
       <c r="E49" t="n">
-        <v>8.936825885978431</v>
+        <v>10.24</v>
       </c>
       <c r="F49" t="n">
-        <v>-31.8</v>
+        <v>-19</v>
       </c>
       <c r="G49" t="n">
-        <v>-35.3</v>
+        <v>-46.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020年07月</t>
+          <t>2020年06月</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-31.2</v>
+        <v>-30.7</v>
       </c>
       <c r="C50" t="n">
-        <v>109.39</v>
+        <v>243.97</v>
       </c>
       <c r="D50" t="n">
-        <v>-9.1</v>
+        <v>-11.8</v>
       </c>
       <c r="E50" t="n">
-        <v>9.58904109589041</v>
+        <v>10.1587301587302</v>
       </c>
       <c r="F50" t="n">
-        <v>-19</v>
+        <v>-14.1</v>
       </c>
       <c r="G50" t="n">
-        <v>-16.6</v>
+        <v>-35.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2020年08月</t>
+          <t>2020年07月</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-15.5</v>
+        <v>-30.8</v>
       </c>
       <c r="C51" t="n">
-        <v>-6.2</v>
+        <v>109.39</v>
       </c>
       <c r="D51" t="n">
-        <v>-6.2</v>
+        <v>-9.1</v>
       </c>
       <c r="E51" t="n">
-        <v>9.81873111782477</v>
+        <v>8.90625</v>
       </c>
       <c r="F51" t="n">
-        <v>-14.1</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>-14.6</v>
+        <v>-16.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020年09月</t>
+          <t>2020年08月</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-26.9</v>
+        <v>-31.2</v>
       </c>
       <c r="C52" t="n">
-        <v>12.3</v>
+        <v>-6.2</v>
       </c>
       <c r="D52" t="n">
-        <v>-3.7</v>
+        <v>-6.2</v>
       </c>
       <c r="E52" t="n">
-        <v>9.73053892215569</v>
+        <v>8.8646967340591</v>
       </c>
       <c r="F52" t="n">
-        <v>-8.800000000000001</v>
+        <v>-5.9</v>
       </c>
       <c r="G52" t="n">
-        <v>-12.3</v>
+        <v>-14.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020年09月</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-24.9</v>
+        <v>-15.5</v>
       </c>
       <c r="C53" t="n">
-        <v>-34.7</v>
+        <v>12.3</v>
       </c>
       <c r="D53" t="n">
-        <v>-2.4</v>
+        <v>-3.7</v>
       </c>
       <c r="E53" t="n">
-        <v>9.83606557377049</v>
+        <v>8.936825885978431</v>
       </c>
       <c r="F53" t="n">
         <v>-5.9</v>
       </c>
       <c r="G53" t="n">
-        <v>-9.199999999999999</v>
+        <v>-12.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020年10月</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-22.1</v>
+        <v>-26.9</v>
       </c>
       <c r="C54" t="n">
-        <v>-32.7</v>
+        <v>-34.7</v>
       </c>
       <c r="D54" t="n">
-        <v>-1</v>
+        <v>-2.4</v>
       </c>
       <c r="E54" t="n">
-        <v>10.3857566765579</v>
+        <v>9.58904109589041</v>
       </c>
       <c r="F54" t="n">
-        <v>-5.9</v>
+        <v>-4.9</v>
       </c>
       <c r="G54" t="n">
-        <v>-9.5</v>
+        <v>-9.199999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020年11月</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-18.8</v>
+        <v>-24.9</v>
       </c>
       <c r="C55" t="n">
-        <v>-24.6</v>
+        <v>-32.7</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E55" t="n">
-        <v>10.4719764011799</v>
+        <v>9.81873111782477</v>
       </c>
       <c r="F55" t="n">
-        <v>-4.9</v>
+        <v>-2.6</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.4</v>
+        <v>-9.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2021年02月</t>
+          <t>2020年12月</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>74.7</v>
+        <v>-22.1</v>
       </c>
       <c r="C56" t="n">
-        <v>-10.7</v>
+        <v>-24.6</v>
       </c>
       <c r="D56" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>9.724238026124819</v>
+        <v>9.73053892215569</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.6</v>
+        <v>-2</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.3</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021年03月</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
+          <t>2021年02月</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-18.8</v>
+      </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>-10.7</v>
       </c>
       <c r="D57" t="n">
-        <v>55.7</v>
+        <v>1.2</v>
       </c>
       <c r="E57" t="n">
-        <v>9.942363112391931</v>
+        <v>9.83606557377049</v>
       </c>
       <c r="F57" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.9</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2021年04月</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>2021年03月</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>74.7</v>
+      </c>
       <c r="C58" t="n">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>46.1</v>
+        <v>55.7</v>
       </c>
       <c r="E58" t="n">
-        <v>10.1865136298422</v>
+        <v>10.3857566765579</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="G58" t="n">
-        <v>112.1</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021年05月</t>
+          <t>2021年04月</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
+        <v>-53</v>
+      </c>
+      <c r="D59" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10.4719764011799</v>
+      </c>
+      <c r="F59" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="G59" t="n">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2021年05月</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="n">
         <v>-34.4</v>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="n">
-        <v>9.71428571428571</v>
-      </c>
-      <c r="F59" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>9.724238026124819</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
         <v>87.90000000000001</v>
       </c>
     </row>
